--- a/correlations_with_retention.xlsx
+++ b/correlations_with_retention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20231213_EmoitonSentimentAnalysis\AffectiveStatesInIssueResolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CDBE98-2A70-46E7-BA4E-0428EC3AE20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38507B56-1F6B-4E01-A848-32B2A726430F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE56D56-07CF-4FD8-88CB-52C43490456B}"/>
+    <workbookView xWindow="8865" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{8BE56D56-07CF-4FD8-88CB-52C43490456B}"/>
   </bookViews>
   <sheets>
     <sheet name="correlations_with_retention" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t xml:space="preserve">  Estimate</t>
   </si>
@@ -35,102 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">(Intercept)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.21e-11 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.63e-09 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000121 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.52e-09 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002963 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.005888 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.030761 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.01931 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.50e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.94e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.71e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.91e-09 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.12e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.43e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00785 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.87e-11 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.61e-13 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.21e-15 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000126 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.033246 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000577 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.15e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.24e-07 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.38e-07 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.24e-13 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.01e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.61e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.0449 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.0453 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.54e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.75e-12 ***</t>
   </si>
   <si>
     <t>EngPos</t>
@@ -177,6 +81,124 @@
   <si>
     <t>NoI</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>0.000923 ***</t>
+  </si>
+  <si>
+    <t>9.81e-10 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005744 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012516 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069770 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064087 .  </t>
+  </si>
+  <si>
+    <t>1.87e-12 ***</t>
+  </si>
+  <si>
+    <t>2.96e-14 ***</t>
+  </si>
+  <si>
+    <t>5.12e-06 ***</t>
+  </si>
+  <si>
+    <t>3.75e-05 ***</t>
+  </si>
+  <si>
+    <t>1.50e-08 ***</t>
+  </si>
+  <si>
+    <t>1.41e-08 ***</t>
+  </si>
+  <si>
+    <t>2.23e-10 ***</t>
+  </si>
+  <si>
+    <t>1.32e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.011 *  </t>
+  </si>
+  <si>
+    <t>3.98e-05 ***</t>
+  </si>
+  <si>
+    <t>3.13e-12 ***</t>
+  </si>
+  <si>
+    <t>1.81e-15 ***</t>
+  </si>
+  <si>
+    <t>8.17e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030438 *  </t>
+  </si>
+  <si>
+    <t>0.000423 ***</t>
+  </si>
+  <si>
+    <t>5.42e-08 ***</t>
+  </si>
+  <si>
+    <t>1.13e-07 ***</t>
+  </si>
+  <si>
+    <t>7.02e-06 ***</t>
+  </si>
+  <si>
+    <t>1.55e-14 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020711 *  </t>
+  </si>
+  <si>
+    <t>4.67e-06 ***</t>
+  </si>
+  <si>
+    <t>2.23e-06 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.02337 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.03595 *  </t>
+  </si>
+  <si>
+    <t>1.66e-06 ***</t>
+  </si>
+  <si>
+    <t>1.56e-11 ***</t>
+  </si>
+  <si>
+    <t>2.28e-08 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00135 **</t>
   </si>
 </sst>
 </file>
@@ -184,9 +206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +368,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -782,6 +811,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,14 +951,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -930,44 +967,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1324,1061 +1370,1205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED1C22-6BE1-441D-A9CE-5CB58A7C3422}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="15.125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>51</v>
+      <c r="A1" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
-        <v>-0.83177760000000001</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.1226907</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-6.7789999999999999</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="5">
+        <v>9.9379499999999996E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.11898930000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.40360699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s">
+      <c r="C3" s="5">
+        <v>5.7024999999999999E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.1370699999999999E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.16675180000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.20058E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>13.888999999999999</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.9561899999999999E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.9233000000000003E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9.479E-4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8.6686000000000003E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.109</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.91292700000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.96555E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.7596000000000002E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.3574399999999999E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.5351999999999997E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.762</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-5.8349999999999999E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.3861000000000005E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-0.69599999999999995</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.48655599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.2947699999999999E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8.4431000000000003E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1.534</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.12514700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-4.8472999999999997E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.4396999999999996E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.56573499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.1959900000000001E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.0818400000000001E-2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.26893600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-0.12954860000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.18763E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-2.4969999999999999</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.58094E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.42326E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <v>-9.7563700000000003E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.2692200000000002E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-1.8520000000000001</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-0.92304839999999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3.04649E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-30.298999999999999</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.1168566</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.6589300000000001E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>7.0439999999999996</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.91652199999999995</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.12059300000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.21359300000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.8689999999999998E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>11.428000000000001</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.26405400000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.1634E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12.205</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.5669000000000005E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.4401000000000001E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5.8321999999999999E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.4148000000000001E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9.3959000000000001E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.6596E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8.0657999999999994E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.4220999999999999E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4.9290000000000002E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.3070999999999999E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.377</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.0187E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.3495999999999999E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="5">
+        <v>-1.1809999999999999E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.3074000000000001E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-0.90300000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.11376500000000001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.7930000000000001E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6.3449999999999998</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6">
-        <v>6.7926600000000004E-2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.12628E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6.0309999999999997</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9.7349000000000005E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8.9813000000000004E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.11024200000000001</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2.5308000000000001E-2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4.3559999999999999</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5">
+        <v>-0.232736</v>
+      </c>
+      <c r="D31" s="5">
+        <v>9.1524999999999995E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>-2.5430000000000001</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5">
+        <v>-0.69280799999999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.8104000000000001E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-14.401999999999999</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.120213</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2.9260000000000001E-2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.3196639999999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.146977</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8.9789999999999992</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.20994499999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.0113000000000001E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.1666501</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.18905E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14.015000000000001</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C36" s="5">
+        <v>0.29725200000000002</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3.7373000000000003E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.4082800000000003E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8.8655999999999995E-3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C37" s="5">
+        <v>9.1167999999999999E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2.3143E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-3.2630000000000002E-4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8.5930999999999993E-3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.96970699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5.8407100000000003E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9.6664000000000003E-3</v>
-      </c>
-      <c r="E7" s="6">
-        <v>6.0419999999999998</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C38" s="5">
+        <v>4.7631E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.2006999999999999E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.5137300000000001E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8.4592999999999995E-3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2.972</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C39" s="5">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.6804999999999999E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-0.1154123</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.135681</v>
-      </c>
-      <c r="E9" s="6">
-        <v>-0.85099999999999998</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.39498299999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-7.3806200000000002E-2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4.7208699999999999E-2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>-1.5629999999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.11795799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-4.1687700000000001E-2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6.2382300000000002E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>-0.66800000000000004</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.50396700000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
+      <c r="C40" s="5">
+        <v>0.126804</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.3321999999999999E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>5.4370000000000003</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6">
-        <v>2.4981999999999999E-3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.05261E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.81239899999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5">
+        <v>-4.6220000000000002E-3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.9498999999999999E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.812639</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-1.2520999999999999E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.0493999999999998E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.54121900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.0073000000000001E-2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2.1347000000000001E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.347049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.155755</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.9364000000000001E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6">
-        <v>-7.4802400000000005E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5.1354799999999999E-2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>-1.4570000000000001</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.145232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-0.200512</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.14891299999999999</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-1.347</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.17814099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
+      <c r="B46" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.194636</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.3319000000000003E-2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6">
-        <v>3.8829700000000002E-2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.40997E-2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2.754</v>
-      </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2.4659999999999999E-3</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.151453</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.98701099999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="5">
+        <v>-0.57594599999999996</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7.4957999999999997E-2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>-7.6840000000000002</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.112965</v>
+      </c>
+      <c r="D49" s="10">
+        <v>4.8835000000000003E-2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.5195320000000001</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.173566</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.19903399999999999</v>
+      </c>
+      <c r="D51" s="5">
+        <v>4.3466999999999999E-2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.27037600000000001</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5.7148999999999998E-2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4.7309999999999999</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4.4049999999999999E-2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3.2834000000000002E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.17973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5">
+        <v>-1.2822E-2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.9690999999999999E-2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-0.432</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.66586999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="5">
+        <v>8.8961999999999999E-2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3.9238000000000002E-2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1.7637E-2</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.0816E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.56711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="15">
-        <v>-0.112205</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5.1943099999999999E-2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-2.16</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="C57" s="5">
+        <v>-4.7837999999999999E-2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.2807999999999998E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>-2.097</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.25216499999999997</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.10778500000000001</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C58" s="5">
+        <v>-4.1019999999999997E-3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2.9503999999999999E-2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.88941000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.22009699999999999</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1.8578999999999998E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>11.847</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.26146000000000003</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2.1514999999999999E-2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>12.153</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6.5636E-2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1.431E-2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.5869999999999997</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C59" s="5">
+        <v>-2.6778E-2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.7778000000000001E-2</v>
+      </c>
+      <c r="E59" s="5">
+        <v>-0.96399999999999997</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.33502999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6">
-        <v>5.6498E-2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1.4071E-2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>4.0149999999999997</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="6">
-        <v>9.0089000000000002E-2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.6494000000000002E-2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5.4619999999999997</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="C60" s="5">
+        <v>0.20725299999999999</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4.3255000000000002E-2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="5">
+        <v>-2.785E-2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.22635</v>
+      </c>
+      <c r="E61" s="5">
+        <v>-0.123</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.90207999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8.1003000000000006E-2</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.4130999999999999E-2</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5.7320000000000002</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="C62" s="5">
+        <v>0.45222400000000001</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6.7074999999999996E-2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>6.742</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+      <c r="B63" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3.173E-3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.299E-2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.80700000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8.1609999999999999E-3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1.3391999999999999E-2</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.54227000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-1.2050999999999999E-2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1.299E-2</v>
-      </c>
-      <c r="E25" s="6">
-        <v>-0.92800000000000005</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.35357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="6">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1.7420000000000001E-2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5.7119999999999997</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.145371</v>
-      </c>
-      <c r="D27" s="6">
-        <v>8.9079000000000005E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.10269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.120756</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2.5047E-2</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.8209999999999997</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="15">
-        <v>-0.24032800000000001</v>
-      </c>
-      <c r="D29" s="15">
-        <v>9.0398000000000006E-2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>-2.6589999999999998</v>
-      </c>
-      <c r="F29" s="16" t="s">
+      <c r="C63" s="5">
+        <v>-0.23227800000000001</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.228848</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-1.0149999999999999</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.31011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="13"/>
+      <c r="B64" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.82062999999999997</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.12335</v>
-      </c>
-      <c r="E30" s="6">
-        <v>6.6529999999999996</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="C64" s="5">
+        <v>-0.59839100000000001</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.10706400000000001</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-5.5890000000000004</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.21407000000000001</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="E31" s="6">
-        <v>7.1360000000000001</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.29131000000000001</v>
-      </c>
-      <c r="D32" s="6">
-        <v>3.7240000000000002E-2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>7.8220000000000001</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="6">
-        <v>8.838E-2</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2.3050000000000001E-2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>3.835</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="6">
-        <v>4.6690000000000002E-2</v>
-      </c>
-      <c r="D34" s="6">
-        <v>2.1930000000000002E-2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2.129</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="6">
-        <v>9.1920000000000002E-2</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="E35" s="6">
-        <v>3.4420000000000002</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0.12533</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2.3259999999999999E-2</v>
-      </c>
-      <c r="E36" s="6">
-        <v>5.3869999999999996</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-0.16864000000000001</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.43803999999999998</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.70025199999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="6">
-        <v>-0.12259</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.14835999999999999</v>
-      </c>
-      <c r="E38" s="6">
-        <v>-0.82599999999999996</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.40865099999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0.10706</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.18348999999999999</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.55959400000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0.14154</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2.8709999999999999E-2</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4.93</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="6">
-        <v>-0.15018000000000001</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.14815999999999999</v>
-      </c>
-      <c r="E41" s="6">
-        <v>-1.014</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.31077700000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.21392</v>
-      </c>
-      <c r="D42" s="6">
-        <v>4.2959999999999998E-2</v>
-      </c>
-      <c r="E42" s="6">
-        <v>4.9790000000000001</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="15">
-        <v>-2.239E-2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0.15035999999999999</v>
-      </c>
-      <c r="E43" s="15">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0.88162300000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1.08283</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.14607999999999999</v>
-      </c>
-      <c r="E44" s="6">
-        <v>7.4130000000000003</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.20215</v>
-      </c>
-      <c r="D45" s="6">
-        <v>4.3279999999999999E-2</v>
-      </c>
-      <c r="E45" s="6">
-        <v>4.67</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.25838</v>
-      </c>
-      <c r="D46" s="6">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="E46" s="6">
-        <v>4.5410000000000004</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="6">
-        <v>4.3830000000000001E-2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>3.279E-2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1.337</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.18129999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="6">
-        <v>-1.136E-2</v>
-      </c>
-      <c r="D48" s="6">
-        <v>2.9659999999999999E-2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>-0.38300000000000001</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.70179999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="6">
-        <v>7.8219999999999998E-2</v>
-      </c>
-      <c r="D49" s="6">
-        <v>3.9010000000000003E-2</v>
-      </c>
-      <c r="E49" s="6">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1.695E-2</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3.0759999999999999E-2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.58169999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-1.35894</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.67898000000000003</v>
-      </c>
-      <c r="E51" s="6">
-        <v>-2.0009999999999999</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="6">
-        <v>-6.8180000000000004E-2</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.24143999999999999</v>
-      </c>
-      <c r="E52" s="6">
-        <v>-0.28199999999999997</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.77759999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="6">
-        <v>-0.35468</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.26099</v>
-      </c>
-      <c r="E53" s="6">
-        <v>-1.359</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.1741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0.18278</v>
-      </c>
-      <c r="D54" s="6">
-        <v>4.2290000000000001E-2</v>
-      </c>
-      <c r="E54" s="6">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="6">
-        <v>8.405E-2</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.22489000000000001</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0.374</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.70860000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0.46911000000000003</v>
-      </c>
-      <c r="D56" s="6">
-        <v>6.651E-2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>7.0529999999999999</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="7">
-        <v>-0.27886</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.22675000000000001</v>
-      </c>
-      <c r="E57" s="7">
-        <v>-1.23</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.21879999999999999</v>
+      <c r="C65" s="6">
+        <v>0.23350599999999999</v>
+      </c>
+      <c r="D65" s="6">
+        <v>7.2877999999999998E-2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="A44:A57"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
